--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Estudios\DESARROLLO WEB\INTRODUCCION A LA PROGHRAMACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Proyectos\wordix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -60,39 +60,12 @@
     <t>¿Para qué se utilizada?: guarda las palabras que se pueden utilizar para jugar wordix</t>
   </si>
   <si>
-    <t>$almacenJugador=</t>
-  </si>
-  <si>
-    <t>palabraWordix</t>
-  </si>
-  <si>
     <t>jugador</t>
   </si>
   <si>
-    <t>intentos</t>
-  </si>
-  <si>
-    <t>puntanje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJO </t>
-  </si>
-  <si>
-    <t>Tipo: Asociativo (los indices son String)</t>
-  </si>
-  <si>
-    <t>Tipo de datos: Almacena valores Strings y enteros</t>
-  </si>
-  <si>
-    <t>¿Para que se utiliza?: Guarda la informacion de la partida de un jugador</t>
-  </si>
-  <si>
     <t>$coleccionPartidas=</t>
   </si>
   <si>
-    <t>palabra -&gt;</t>
-  </si>
-  <si>
     <t>jugador  -&gt;</t>
   </si>
   <si>
@@ -111,21 +84,12 @@
     <t>Informacion de la estructura:</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo: multidimencional, Indexado </t>
-  </si>
-  <si>
     <t>Tipo de datos: Variables</t>
   </si>
   <si>
     <t>¿Para que se utiliza?: Almacena Informacion de las partidas jugadas</t>
   </si>
   <si>
-    <t>$resumenJugador</t>
-  </si>
-  <si>
-    <t>puntaje</t>
-  </si>
-  <si>
     <t>victorias</t>
   </si>
   <si>
@@ -172,13 +136,46 @@
   </si>
   <si>
     <t>PISOS</t>
+  </si>
+  <si>
+    <t>&lt;-- INDICE</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
+  </si>
+  <si>
+    <t>SABIO</t>
+  </si>
+  <si>
+    <t>LUCES</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>&lt;-- CLAVE</t>
+  </si>
+  <si>
+    <t>palabraWordix -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: multidimencional, Indexado, que contiene asociativos </t>
+  </si>
+  <si>
+    <t>partidas</t>
+  </si>
+  <si>
+    <t>$estadisticasJugador=</t>
+  </si>
+  <si>
+    <t>puntaje total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -207,6 +204,30 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,11 +260,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -256,12 +305,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -562,6 +645,9 @@
       <c r="V3" s="2">
         <v>20</v>
       </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="B4" s="4" t="s">
@@ -579,46 +665,54 @@
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="V4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
     </row>
     <row r="6" spans="1:23">
       <c r="B6" s="5" t="s">
@@ -666,26 +760,26 @@
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>4</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -699,214 +793,213 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
+      <c r="B15" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="7">
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1">
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="B19" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7">
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="22">
+        <v>8</v>
+      </c>
+      <c r="E26" s="22">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="8">
-        <v>8</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2</v>
-      </c>
-      <c r="E34" s="7">
+      <c r="H26" s="10">
         <v>0</v>
       </c>
-      <c r="F34" s="7">
+      <c r="I26" s="10">
         <v>1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="J26" s="10">
         <v>0</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="7">
+      <c r="K26" s="10">
         <v>0</v>
       </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B36" s="24"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="38" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="39" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="41" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="42" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="43" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="45" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="46" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="48" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1090,6 +1183,6 @@
     <row r="229" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -69,9 +69,6 @@
     <t>jugador  -&gt;</t>
   </si>
   <si>
-    <t>MAJO</t>
-  </si>
-  <si>
     <t>LEO</t>
   </si>
   <si>
@@ -169,6 +166,39 @@
   </si>
   <si>
     <t>puntaje total</t>
+  </si>
+  <si>
+    <t>lilmauro</t>
+  </si>
+  <si>
+    <t>brunardo</t>
+  </si>
+  <si>
+    <t>mermariel</t>
+  </si>
+  <si>
+    <t>fabro</t>
+  </si>
+  <si>
+    <t>fronchi</t>
+  </si>
+  <si>
+    <t>ariana</t>
+  </si>
+  <si>
+    <t>santaclau</t>
+  </si>
+  <si>
+    <t>cristeanus</t>
+  </si>
+  <si>
+    <t>torchinsky</t>
+  </si>
+  <si>
+    <t>joma</t>
+  </si>
+  <si>
+    <t>&lt;--INDICE NUMERICO</t>
   </si>
 </sst>
 </file>
@@ -292,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -330,7 +360,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,6 +372,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +602,7 @@
   <dimension ref="A3:W229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -646,7 +685,7 @@
         <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -675,43 +714,43 @@
         <v>8</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="S4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -745,8 +784,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -774,14 +813,28 @@
       <c r="E12" s="14">
         <v>3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="25">
         <v>4</v>
       </c>
       <c r="G12" s="14">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="H12" s="14">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14">
+        <v>7</v>
+      </c>
+      <c r="J12" s="14">
+        <v>8</v>
+      </c>
+      <c r="K12" s="28">
+        <v>9</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="27"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -793,10 +846,10 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -805,65 +858,107 @@
       <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+      <c r="E13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="B14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="16">
         <v>3</v>
       </c>
       <c r="C15" s="11">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="D15" s="11">
+      <c r="G15" s="15">
+        <v>6</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
         <v>4</v>
       </c>
-      <c r="E15" s="15">
-        <v>5</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="11">
         <v>4</v>
@@ -872,88 +967,114 @@
         <v>5</v>
       </c>
       <c r="D16" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="15">
-        <v>2</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F16" s="15">
+        <v>15</v>
+      </c>
+      <c r="G16" s="15">
+        <v>7</v>
+      </c>
+      <c r="H16" s="15">
+        <v>14</v>
+      </c>
+      <c r="I16" s="15">
+        <v>14</v>
+      </c>
+      <c r="J16" s="15">
+        <v>16</v>
+      </c>
+      <c r="K16" s="15">
+        <v>14</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="B19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>47</v>
+      <c r="C25" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="L25" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="22">
-        <v>8</v>
-      </c>
-      <c r="E26" s="22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
+      <c r="D26" s="21">
+        <v>22</v>
+      </c>
+      <c r="E26" s="21">
         <v>2</v>
       </c>
       <c r="F26" s="10">
@@ -975,17 +1096,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1"/>
     <row r="33" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="34" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="36" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B36" s="24"/>
+      <c r="B36" s="23"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1"/>
